--- a/住友GB4编码服务指令接口.xlsx
+++ b/住友GB4编码服务指令接口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="629">
   <si>
     <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"serialNumber":"2",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"pgnSwitch":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +539,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"happenCondition":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"frameFormat":"0",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +552,14 @@
   </si>
   <si>
     <t>"pgnId":"",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"duration":"10",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,6 +901,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>事件种类（0-PGN参数阀值事件；1-PGN参数开关事件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PGN ID的帧格式（0-标准帧；1-扩展帧）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,6 +913,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>起始位置，取值范围[0-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数设定值，事件条件满足判断的基准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,6 +934,10 @@
   </si>
   <si>
     <t>有无数据ID（0-无；1-有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关参数在PGN中所处的字节位置，取值范围为0-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1678,6 +1706,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"startStation":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"paramValue":"100",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"duration":"10",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1687,6 +1723,10 @@
   </si>
   <si>
     <t>"dataIdBegin":"0",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trigger":"0",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2494,48 +2534,12 @@
     <t>"pgnPackage":</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>"serialNumber":"2",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"trigger":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramValue":"100",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"startStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始位置，取值范围[0-7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件种类（0-PGN参数阀值事件；1-PGN参数开关事件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"happenCondition":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"paramStation":"0",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关参数在PGN中所处的字节位置，取值范围为0-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2622,14 +2626,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2657,7 +2653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2703,10 +2699,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3014,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3276,10 +3268,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="4"/>
@@ -3310,7 +3302,7 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3339,10 +3331,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -3361,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="4"/>
@@ -3398,7 +3390,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -3448,13 +3440,13 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>3</v>
@@ -3468,16 +3460,16 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
@@ -3488,13 +3480,13 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3506,16 +3498,16 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
@@ -3561,7 +3553,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3577,7 +3569,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3608,7 +3600,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -3617,7 +3609,7 @@
         <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="4"/>
@@ -3629,7 +3621,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3645,12 +3637,12 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
@@ -3663,15 +3655,15 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -3683,15 +3675,15 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
@@ -3703,15 +3695,15 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4"/>
@@ -3723,7 +3715,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3737,7 +3729,7 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3780,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3789,8 +3781,8 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="15.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="87.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="4" customWidth="1"/>
@@ -3799,7 +3791,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3860,7 +3852,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3868,19 +3860,19 @@
         <v>17</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G8" s="21"/>
     </row>
@@ -3888,12 +3880,12 @@
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G9" s="21"/>
     </row>
@@ -3901,12 +3893,12 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G10" s="21"/>
     </row>
@@ -3914,7 +3906,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3923,7 +3915,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3956,7 +3948,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C18" s="4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
@@ -3967,10 +3959,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>3</v>
@@ -3978,10 +3970,10 @@
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>3</v>
@@ -3989,20 +3981,20 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C22" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B24" s="16"/>
     </row>
@@ -4034,7 +4026,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>17</v>
@@ -4045,21 +4037,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
@@ -4067,28 +4059,28 @@
     </row>
     <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B36" s="16"/>
     </row>
@@ -4120,7 +4112,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>50</v>
@@ -4131,21 +4123,21 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>3</v>
@@ -4153,135 +4145,135 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C44" s="4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D45" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D46" s="4" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D47" s="4" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D48" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D49" s="2" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D50" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D52" s="2" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D53" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="24" x14ac:dyDescent="0.15">
       <c r="D54" s="2" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="9" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D55" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D56" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D57" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D58" s="4" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D59" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>53</v>
@@ -4289,84 +4281,84 @@
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D60" s="4" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D61" s="4" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D62" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D63" s="4" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D64" s="4" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D65" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D66" s="4" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D67" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D69" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D70" s="4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>51</v>
@@ -4374,7 +4366,7 @@
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D71" s="4" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>52</v>
@@ -4382,47 +4374,47 @@
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D72" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D73" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D74" s="4" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D75" s="4" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D76" s="4" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D77" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>53</v>
@@ -4430,59 +4422,59 @@
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D78" s="4" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D79" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D80" s="4" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D81" s="4" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D82" s="4" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D83" s="4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D84" s="12" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="13" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -4490,7 +4482,7 @@
         <v>125</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -4498,33 +4490,33 @@
         <v>126</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D87" s="4" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D88" s="4" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D89" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="15" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B91" s="16"/>
     </row>
@@ -4556,32 +4548,32 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C98" s="4" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>3</v>
@@ -4589,13 +4581,13 @@
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C99" s="4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.15">
@@ -4605,158 +4597,158 @@
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D101" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D102" s="4" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D103" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D104" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="4" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="4" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D106" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D108" s="2" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D110" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="9" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D111" s="4" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D112" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D113" s="4" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D114" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D115" s="4" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D116" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D117" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C118" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.15">
@@ -4766,144 +4758,144 @@
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D120" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D121" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D122" s="4" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D123" s="4" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D124" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D125" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D126" s="4" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D127" s="4" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D128" s="4" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D129" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D130" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D131" s="4" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D132" s="4" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D133" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D134" s="4" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D135" s="4" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D136" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="17" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="4" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4934,7 +4926,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C143" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>17</v>
@@ -4945,10 +4937,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C144" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>3</v>
@@ -4956,10 +4948,10 @@
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C145" s="4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>2</v>
@@ -4967,136 +4959,136 @@
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C146" s="4" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D147" s="4" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D148" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D149" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D150" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D151" s="4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D152" s="4" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D153" s="4" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D154" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D155" s="4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D156" s="4" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D157" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D158" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="D159" s="4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D160" s="4" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D161" s="4" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C162" s="6"/>
       <c r="D162" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -5104,13 +5096,13 @@
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C163" s="4" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.15">
@@ -5122,129 +5114,129 @@
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D165" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D166" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G166" s="23"/>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D167" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G167" s="23"/>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D168" s="4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G168" s="23"/>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D169" s="4" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G169" s="23"/>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D170" s="4" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G170" s="23"/>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D171" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G171" s="23"/>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D172" s="4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G172" s="23"/>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D173" s="4" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G173" s="23"/>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D174" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G174" s="23"/>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D175" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G175" s="23"/>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D176" s="4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G176" s="23"/>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D177" s="4" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G177" s="23"/>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D178" s="4" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G178" s="23"/>
     </row>
@@ -5257,13 +5249,13 @@
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C180" s="4" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F180" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.15">
@@ -5273,107 +5265,107 @@
     </row>
     <row r="182" spans="3:7" ht="84" x14ac:dyDescent="0.15">
       <c r="D182" s="4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D183" s="4" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D184" s="4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C185" s="4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D186" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="D187" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D188" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C189" s="4" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D190" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="3:7" ht="60" x14ac:dyDescent="0.15">
       <c r="D191" s="4" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D192" s="4" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D193" s="4" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D194" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C195" s="4" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="17" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B197" s="16"/>
     </row>
@@ -5405,7 +5397,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C202" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>17</v>
@@ -5416,10 +5408,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C203" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>3</v>
@@ -5427,10 +5419,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C204" s="4" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>2</v>
@@ -5438,10 +5430,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C205" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>2</v>
@@ -5449,12 +5441,12 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C206" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="17" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B208" s="16"/>
     </row>
@@ -5486,7 +5478,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C213" s="4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>17</v>
@@ -5497,10 +5489,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C214" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>3</v>
@@ -5508,10 +5500,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C215" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>2</v>
@@ -5519,14 +5511,17 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C216" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" s="17" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B218" s="16"/>
+      <c r="C218" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B219" s="4" t="s">
@@ -5556,7 +5551,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C223" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>83</v>
@@ -5567,21 +5562,21 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C224" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="225" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C225" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>3</v>
@@ -5589,7 +5584,7 @@
     </row>
     <row r="226" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C226" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>85</v>
@@ -5597,18 +5592,18 @@
     </row>
     <row r="227" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C227" s="4" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C228" s="4" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>86</v>
@@ -5616,10 +5611,10 @@
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C229" s="4" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>86</v>
@@ -5627,7 +5622,7 @@
     </row>
     <row r="230" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C230" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>87</v>
@@ -5638,18 +5633,18 @@
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C231" s="4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C232" s="4" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G232" s="4" t="s">
         <v>89</v>
@@ -5657,10 +5652,10 @@
     </row>
     <row r="233" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C233" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G233" s="4" t="s">
         <v>89</v>
@@ -5668,10 +5663,10 @@
     </row>
     <row r="234" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C234" s="4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G234" s="4" t="s">
         <v>89</v>
@@ -5679,7 +5674,7 @@
     </row>
     <row r="235" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C235" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>90</v>
@@ -5690,18 +5685,18 @@
     </row>
     <row r="236" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C236" s="4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C237" s="4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G237" s="4" t="s">
         <v>92</v>
@@ -5709,10 +5704,10 @@
     </row>
     <row r="238" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C238" s="4" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>91</v>
@@ -5720,7 +5715,7 @@
     </row>
     <row r="239" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C239" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>93</v>
@@ -5731,10 +5726,10 @@
     </row>
     <row r="240" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C240" s="4" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>94</v>
@@ -5742,10 +5737,10 @@
     </row>
     <row r="241" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C241" s="4" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>91</v>
@@ -5753,7 +5748,7 @@
     </row>
     <row r="242" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C242" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>95</v>
@@ -5764,18 +5759,18 @@
     </row>
     <row r="243" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C243" s="4" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C244" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>96</v>
@@ -5783,10 +5778,10 @@
     </row>
     <row r="245" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C245" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G245" s="4" t="s">
         <v>96</v>
@@ -5794,7 +5789,7 @@
     </row>
     <row r="246" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C246" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>97</v>
@@ -5805,7 +5800,7 @@
     </row>
     <row r="247" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C247" s="4" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>99</v>
@@ -5816,18 +5811,18 @@
     </row>
     <row r="248" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C248" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C249" s="4" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>101</v>
@@ -5835,10 +5830,10 @@
     </row>
     <row r="250" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C250" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>100</v>
@@ -5846,7 +5841,7 @@
     </row>
     <row r="251" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C251" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>102</v>
@@ -5857,32 +5852,32 @@
     </row>
     <row r="252" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C252" s="4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C253" s="4" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C254" s="4" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>100</v>
@@ -5895,7 +5890,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257" s="17" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B257" s="16"/>
     </row>
@@ -5927,7 +5922,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C262" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>83</v>
@@ -5938,21 +5933,21 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C263" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C264" s="4" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G264" s="4" t="s">
         <v>3</v>
@@ -5965,7 +5960,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -5983,7 +5978,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B270" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>47</v>
@@ -5996,7 +5991,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C272" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>83</v>
@@ -6007,27 +6002,27 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C273" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C274" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G274" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.15">
@@ -6037,7 +6032,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.15">
@@ -6068,7 +6063,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C282" s="4" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>83</v>
@@ -6079,10 +6074,10 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C283" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G283" s="4" t="s">
         <v>3</v>
@@ -6095,9 +6090,12 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="17" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B286" s="16"/>
+      <c r="C286" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B287" s="4" t="s">
@@ -6127,7 +6125,7 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C291" s="4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>17</v>
@@ -6138,13 +6136,13 @@
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C292" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.15">
@@ -6152,7 +6150,7 @@
         <v>129</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G293" s="4" t="s">
         <v>2</v>
@@ -6160,13 +6158,13 @@
     </row>
     <row r="294" spans="2:8" ht="24" x14ac:dyDescent="0.15">
       <c r="C294" s="4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.15">
@@ -6177,10 +6175,10 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D296" s="4" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G296" s="4" t="s">
         <v>2</v>
@@ -6189,10 +6187,10 @@
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D297" s="4" t="s">
-        <v>619</v>
+        <v>130</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>2</v>
@@ -6200,10 +6198,10 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D298" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>624</v>
+        <v>223</v>
       </c>
       <c r="G298" s="4" t="s">
         <v>80</v>
@@ -6226,32 +6224,32 @@
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E301" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="F301" s="24" t="s">
-        <v>228</v>
+      <c r="E301" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E302" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F302" s="24" t="s">
-        <v>224</v>
+      <c r="E302" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E303" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="F303" s="24" t="s">
+      <c r="E303" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G303" s="4" t="s">
@@ -6259,11 +6257,11 @@
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E304" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F304" s="24" t="s">
-        <v>183</v>
+      <c r="E304" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="G304" s="4" t="s">
         <v>66</v>
@@ -6271,10 +6269,10 @@
     </row>
     <row r="305" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E305" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G305" s="4" t="s">
         <v>62</v>
@@ -6282,10 +6280,10 @@
     </row>
     <row r="306" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E306" s="4" t="s">
-        <v>625</v>
+        <v>136</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G306" s="4" t="s">
         <v>62</v>
@@ -6293,10 +6291,10 @@
     </row>
     <row r="307" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E307" s="4" t="s">
-        <v>622</v>
+        <v>424</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>623</v>
+        <v>226</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>67</v>
@@ -6304,54 +6302,54 @@
     </row>
     <row r="308" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E308" s="4" t="s">
-        <v>621</v>
+        <v>425</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="309" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E309" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F309" s="25" t="s">
-        <v>227</v>
+      <c r="E309" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="G309" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="310" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E310" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F310" s="24" t="s">
-        <v>223</v>
+      <c r="E310" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G310" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="311" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E311" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="F311" s="24" t="s">
-        <v>205</v>
+      <c r="E311" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G311" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="312" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E312" s="24" t="s">
+      <c r="E312" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F312" s="24" t="s">
-        <v>206</v>
+      <c r="F312" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="G312" s="4" t="s">
         <v>71</v>
@@ -6359,15 +6357,15 @@
     </row>
     <row r="313" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E313" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D314" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G314" s="4" t="s">
         <v>74</v>
@@ -6379,32 +6377,32 @@
       </c>
     </row>
     <row r="316" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E316" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F316" s="24" t="s">
-        <v>204</v>
+      <c r="E316" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="317" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E317" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F317" s="24" t="s">
-        <v>225</v>
+      <c r="E317" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="G317" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="318" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E318" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F318" s="24" t="s">
+      <c r="E318" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F318" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G318" s="4" t="s">
@@ -6412,11 +6410,11 @@
       </c>
     </row>
     <row r="319" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E319" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="F319" s="24" t="s">
-        <v>627</v>
+      <c r="E319" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="G319" s="4" t="s">
         <v>73</v>
@@ -6424,31 +6422,31 @@
     </row>
     <row r="320" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E320" s="4" t="s">
-        <v>620</v>
+        <v>429</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E321" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F321" s="25" t="s">
-        <v>222</v>
+      <c r="E321" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E322" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F322" s="24" t="s">
+      <c r="E322" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F322" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G322" s="4" t="s">
@@ -6456,10 +6454,10 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E323" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F323" s="24" t="s">
+      <c r="E323" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F323" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G323" s="4" t="s">
@@ -6467,10 +6465,10 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E324" s="24" t="s">
+      <c r="E324" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F324" s="24" t="s">
+      <c r="F324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G324" s="4" t="s">
@@ -6484,19 +6482,22 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D326" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C327" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A329" s="17" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B329" s="16"/>
+      <c r="C329" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B330" s="4" t="s">
@@ -6513,7 +6514,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B332" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>16</v>
@@ -6526,7 +6527,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C334" s="4" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F334" s="4" t="s">
         <v>17</v>
@@ -6537,21 +6538,21 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C335" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C336" s="4" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G336" s="4" t="s">
         <v>2</v>
@@ -6559,13 +6560,13 @@
     </row>
     <row r="337" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C337" s="4" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F337" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G337" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338" spans="3:7" x14ac:dyDescent="0.15">
@@ -6575,10 +6576,10 @@
     </row>
     <row r="339" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D339" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>2</v>
@@ -6586,10 +6587,10 @@
     </row>
     <row r="340" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D340" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G340" s="4" t="s">
         <v>2</v>
@@ -6597,10 +6598,10 @@
     </row>
     <row r="341" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D341" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G341" s="4" t="s">
         <v>2</v>
@@ -6608,10 +6609,10 @@
     </row>
     <row r="342" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D342" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G342" s="4" t="s">
         <v>2</v>
@@ -6619,7 +6620,7 @@
     </row>
     <row r="343" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D343" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F343" s="4" t="s">
         <v>19</v>
@@ -6630,10 +6631,10 @@
     </row>
     <row r="344" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D344" s="4" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G344" s="4" t="s">
         <v>2</v>
@@ -6641,18 +6642,18 @@
     </row>
     <row r="345" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D345" s="4" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G345" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="346" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D346" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>20</v>
@@ -6661,16 +6662,16 @@
     </row>
     <row r="347" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D347" s="4" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G347" s="18"/>
     </row>
     <row r="348" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D348" s="4" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>21</v>
@@ -6679,27 +6680,27 @@
     </row>
     <row r="349" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D349" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F349" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G349" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="G349" s="18" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="350" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D350" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G350" s="18"/>
     </row>
     <row r="351" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D351" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F351" s="4" t="s">
         <v>24</v>
@@ -6718,7 +6719,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A355" s="17" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B355" s="16"/>
     </row>
@@ -6750,7 +6751,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C360" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F360" s="4" t="s">
         <v>17</v>
@@ -6761,10 +6762,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C361" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F361" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G361" s="4" t="s">
         <v>3</v>
@@ -6772,10 +6773,10 @@
     </row>
     <row r="362" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C362" s="4" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G362" s="4" t="s">
         <v>3</v>
@@ -6783,35 +6784,35 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C363" s="4" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G363" s="4" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C364" s="4" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G364" s="4" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C365" s="4" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F365" s="4" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="G365" s="4" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
@@ -6821,13 +6822,16 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A368" s="15" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B368" s="16"/>
+      <c r="C368" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B369" s="4" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.15">
@@ -6843,7 +6847,7 @@
         <v>55</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.15">
@@ -6853,32 +6857,32 @@
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C373" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F373" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G373" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C374" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G374" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="375" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C375" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F375" s="8" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G375" s="4" t="s">
         <v>2</v>
@@ -6886,26 +6890,26 @@
     </row>
     <row r="376" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C376" s="4" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="F376" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G376" s="8" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D377" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D378" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F378" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G378" s="4" t="s">
         <v>2</v>
@@ -6913,10 +6917,10 @@
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D379" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G379" s="4" t="s">
         <v>2</v>
@@ -6924,10 +6928,10 @@
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D380" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G380" s="4" t="s">
         <v>2</v>
@@ -6935,10 +6939,10 @@
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D381" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G381" s="4" t="s">
         <v>2</v>
@@ -6946,10 +6950,10 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D382" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F382" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G382" s="4" t="s">
         <v>2</v>
@@ -6957,10 +6961,10 @@
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D383" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G383" s="4" t="s">
         <v>2</v>
@@ -6968,18 +6972,18 @@
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D384" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G384" s="18" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D385" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>20</v>
@@ -6988,10 +6992,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D386" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G386" s="18"/>
     </row>
@@ -7006,21 +7010,21 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D388" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G388" s="18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D389" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F389" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G389" s="18"/>
     </row>
@@ -7035,22 +7039,22 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D391" s="4" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C392" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A394" s="3" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B395" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
@@ -7063,7 +7067,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B397" s="4" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F397" s="4" t="s">
         <v>46</v>
@@ -7076,7 +7080,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C399" s="4" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F399" s="4" t="s">
         <v>17</v>
@@ -7087,10 +7091,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C400" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F400" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G400" s="4" t="s">
         <v>3</v>
@@ -7098,10 +7102,10 @@
     </row>
     <row r="401" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C401" s="4" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G401" s="4" t="s">
         <v>2</v>
@@ -7109,24 +7113,24 @@
     </row>
     <row r="402" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C402" s="4" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G402" s="8" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="403" spans="3:7" ht="24" x14ac:dyDescent="0.15">
       <c r="C403" s="4" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F403" s="4" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G403" s="8" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="404" spans="3:7" x14ac:dyDescent="0.15">
